--- a/data/trans_orig/P1423_2015-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1423_2015-Estudios-trans_orig.xlsx
@@ -762,12 +762,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,55%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>19,28%</t>
+          <t>19,72%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>13,53%</t>
+          <t>13,47%</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>92,94%</t>
+          <t>92,89%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>96,12%</t>
+          <t>96,17%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -854,12 +854,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>80,72%</t>
+          <t>80,28%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>85,45%</t>
+          <t>85,5%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -875,12 +875,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>86,47%</t>
+          <t>86,53%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>89,66%</t>
+          <t>89,68%</t>
         </is>
       </c>
     </row>
@@ -1050,12 +1050,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1121,12 +1121,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>96,26%</t>
+          <t>96,31%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>97,76%</t>
+          <t>97,77%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>89,92%</t>
+          <t>89,83%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>94,94%</t>
+          <t>94,92%</t>
         </is>
       </c>
     </row>
@@ -1338,12 +1338,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1380,12 +1380,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>3,79%</t>
         </is>
       </c>
     </row>
@@ -1409,12 +1409,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>96,3%</t>
+          <t>96,45%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>99,09%</t>
+          <t>99,07%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1430,12 +1430,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>94,84%</t>
+          <t>94,9%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>98,14%</t>
+          <t>98,24%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1451,12 +1451,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>96,13%</t>
+          <t>96,21%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>98,32%</t>
+          <t>98,4%</t>
         </is>
       </c>
     </row>
@@ -1626,12 +1626,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>11,26%</t>
+          <t>11,21%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1668,12 +1668,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>7,48%</t>
         </is>
       </c>
     </row>
@@ -1697,12 +1697,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>95,98%</t>
+          <t>96,04%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>97,29%</t>
+          <t>97,31%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>88,74%</t>
+          <t>88,79%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
@@ -1739,12 +1739,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>92,56%</t>
+          <t>92,52%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>93,82%</t>
+          <t>93,78%</t>
         </is>
       </c>
     </row>
